--- a/data/ARBITRAGEXPLUS2025.xlsx
+++ b/data/ARBITRAGEXPLUS2025.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BLOCKCHAINS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="DEXES" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ASSETS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="POOLS" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ROUTES" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="EXECUTIONS" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="CONFIG" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="ALERTS" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="ORACLES" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="STRATEGIES" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="FLASH_LOANS" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="METRICS" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="LOGS" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ORACLE_ASSETS" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="ERROR_HANDLING_CONFIG" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="COLLECTORS_CONFIG" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BLOCKCHAINS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEXES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASSETS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="POOLS" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ROUTES" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EXECUTIONS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONFIG" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ALERTS" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORACLES" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STRATEGIES" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FLASH_LOANS" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="METRICS" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LOGS" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORACLE_ASSETS" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ERROR_HANDLING_CONFIG" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COLLECTORS_CONFIG" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32,7 +32,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -44,8 +44,17 @@
       <b val="1"/>
       <color rgb="00FFFFFF"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -56,6 +65,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="004472C4"/>
         <bgColor rgb="004472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -71,9 +86,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,365 +470,564 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="11" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
-    <col width="15" customWidth="1" min="13" max="13"/>
-    <col width="15" customWidth="1" min="14" max="14"/>
-    <col width="19" customWidth="1" min="15" max="15"/>
-    <col width="10" customWidth="1" min="16" max="16"/>
-    <col width="14" customWidth="1" min="17" max="17"/>
-    <col width="11" customWidth="1" min="18" max="18"/>
-    <col width="19" customWidth="1" min="19" max="19"/>
-    <col width="14" customWidth="1" min="20" max="20"/>
-    <col width="14" customWidth="1" min="21" max="21"/>
-    <col width="14" customWidth="1" min="22" max="22"/>
-    <col width="13" customWidth="1" min="23" max="23"/>
-    <col width="17" customWidth="1" min="24" max="24"/>
-    <col width="21" customWidth="1" min="25" max="25"/>
-    <col width="9" customWidth="1" min="26" max="26"/>
-    <col width="18" customWidth="1" min="27" max="27"/>
-    <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="18" customWidth="1" min="29" max="29"/>
-    <col width="17" customWidth="1" min="30" max="30"/>
-    <col width="18" customWidth="1" min="31" max="31"/>
-    <col width="16" customWidth="1" min="32" max="32"/>
-    <col width="21" customWidth="1" min="33" max="33"/>
-    <col width="22" customWidth="1" min="34" max="34"/>
-    <col width="15" customWidth="1" min="35" max="35"/>
-    <col width="19" customWidth="1" min="36" max="36"/>
-    <col width="22" customWidth="1" min="37" max="37"/>
-    <col width="13" customWidth="1" min="38" max="38"/>
-    <col width="12" customWidth="1" min="39" max="39"/>
-    <col width="14" customWidth="1" min="40" max="40"/>
-    <col width="12" customWidth="1" min="41" max="41"/>
-    <col width="13" customWidth="1" min="42" max="42"/>
-    <col width="12" customWidth="1" min="43" max="43"/>
-    <col width="13" customWidth="1" min="44" max="44"/>
-    <col width="27" customWidth="1" min="45" max="45"/>
-    <col width="23" customWidth="1" min="46" max="46"/>
-    <col width="7" customWidth="1" min="47" max="47"/>
-    <col width="12" customWidth="1" min="48" max="48"/>
-    <col width="12" customWidth="1" min="49" max="49"/>
-    <col width="7" customWidth="1" min="50" max="50"/>
-    <col width="14" customWidth="1" min="51" max="51"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="20" customWidth="1" min="21" max="21"/>
+    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="20" customWidth="1" min="23" max="23"/>
+    <col width="20" customWidth="1" min="24" max="24"/>
+    <col width="20" customWidth="1" min="25" max="25"/>
+    <col width="20" customWidth="1" min="26" max="26"/>
+    <col width="20" customWidth="1" min="27" max="27"/>
+    <col width="20" customWidth="1" min="28" max="28"/>
+    <col width="20" customWidth="1" min="29" max="29"/>
+    <col width="20" customWidth="1" min="30" max="30"/>
+    <col width="20" customWidth="1" min="31" max="31"/>
+    <col width="20" customWidth="1" min="32" max="32"/>
+    <col width="20" customWidth="1" min="33" max="33"/>
+    <col width="20" customWidth="1" min="34" max="34"/>
+    <col width="20" customWidth="1" min="35" max="35"/>
+    <col width="20" customWidth="1" min="36" max="36"/>
+    <col width="20" customWidth="1" min="37" max="37"/>
+    <col width="20" customWidth="1" min="38" max="38"/>
+    <col width="20" customWidth="1" min="39" max="39"/>
+    <col width="20" customWidth="1" min="40" max="40"/>
+    <col width="20" customWidth="1" min="41" max="41"/>
+    <col width="20" customWidth="1" min="42" max="42"/>
+    <col width="20" customWidth="1" min="43" max="43"/>
+    <col width="20" customWidth="1" min="44" max="44"/>
+    <col width="20" customWidth="1" min="45" max="45"/>
+    <col width="20" customWidth="1" min="46" max="46"/>
+    <col width="20" customWidth="1" min="47" max="47"/>
+    <col width="20" customWidth="1" min="48" max="48"/>
+    <col width="20" customWidth="1" min="49" max="49"/>
+    <col width="20" customWidth="1" min="50" max="50"/>
+    <col width="20" customWidth="1" min="51" max="51"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>BLOCKCHAIN_ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>CHAIN_ID</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>NATIVE_TOKEN</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>SYMBOL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>RPC_URL_1</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>RPC_URL_2</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>RPC_URL_3</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>WSS_URL</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>EXPLORER_URL</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>BLOCK_TIME_MS</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>GAS_PRICE_GWEI</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>MAX_GAS_PRICE</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>MIN_GAS_PRICE</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>EIP1559_SUPPORTED</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>BASE_FEE</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>PRIORITY_FEE</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>GAS_LIMIT</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>MULTICALL_ADDRESS</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>WETH_ADDRESS</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>USDC_ADDRESS</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>USDT_ADDRESS</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>DAI_ADDRESS</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>SUPPORTED_DEXES</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>SUPPORTED_PROTOCOLS</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>TVL_USD</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>DAILY_VOLUME_USD</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>TRANSACTION_COUNT</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>AVERAGE_GAS_COST</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>FINALITY_BLOCKS</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>REORG_PROTECTION</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>MEV_PROTECTION</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>FLASHBOTS_SUPPORTED</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>PRIVATE_TX_SUPPORTED</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>HEALTH_STATUS</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>LAST_BLOCK_NUMBER</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>LAST_BLOCK_TIMESTAMP</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>SYNC_STATUS</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>LATENCY_MS</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS_RATE</t>
+        </is>
+      </c>
+      <c r="AO1" s="2" t="inlineStr">
+        <is>
+          <t>ERROR_RATE</t>
+        </is>
+      </c>
+      <c r="AP1" s="2" t="inlineStr">
+        <is>
+          <t>RETRY_COUNT</t>
+        </is>
+      </c>
+      <c r="AQ1" s="2" t="inlineStr">
+        <is>
+          <t>TIMEOUT_MS</t>
+        </is>
+      </c>
+      <c r="AR1" s="2" t="inlineStr">
+        <is>
+          <t>MAX_RETRIES</t>
+        </is>
+      </c>
+      <c r="AS1" s="2" t="inlineStr">
+        <is>
+          <t>CIRCUIT_BREAKER_THRESHOLD</t>
+        </is>
+      </c>
+      <c r="AT1" s="2" t="inlineStr">
+        <is>
+          <t>RATE_LIMIT_PER_SECOND</t>
+        </is>
+      </c>
+      <c r="AU1" s="2" t="inlineStr">
+        <is>
+          <t>NOTES</t>
+        </is>
+      </c>
+      <c r="AV1" s="2" t="inlineStr">
+        <is>
+          <t>CREATED_AT</t>
+        </is>
+      </c>
+      <c r="AW1" s="2" t="inlineStr">
+        <is>
+          <t>UPDATED_AT</t>
+        </is>
+      </c>
+      <c r="AX1" s="2" t="inlineStr">
         <is>
           <t>IS_ACTIVE</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>NATIVE_TOKEN</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>RPC_URL_1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>RPC_URL_2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>RPC_URL_3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>WSS_URL</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>EXPLORER_URL</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>BLOCK_TIME_MS</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>GAS_PRICE_GWEI</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MAX_GAS_PRICE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MIN_GAS_PRICE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>EIP1559_SUPPORTED</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>BASE_FEE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>PRIORITY_FEE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>GAS_LIMIT</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>MULTICALL_ADDRESS</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>WETH_ADDRESS</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>USDC_ADDRESS</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>USDT_ADDRESS</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>DAI_ADDRESS</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>SUPPORTED_DEXES</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>SUPPORTED_PROTOCOLS</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>TVL_USD</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>DAILY_VOLUME_USD</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>TRANSACTION_COUNT</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>AVERAGE_GAS_COST</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>FINALITY_BLOCKS</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>REORG_PROTECTION</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>MEV_PROTECTION</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>FLASHBOTS_SUPPORTED</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>PRIVATE_TX_SUPPORTED</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>HEALTH_STATUS</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>LAST_BLOCK_NUMBER</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>LAST_BLOCK_TIMESTAMP</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>SYNC_STATUS</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>LATENCY_MS</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>SUCCESS_RATE</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>ERROR_RATE</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>RETRY_COUNT</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>TIMEOUT_MS</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>MAX_RETRIES</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>CIRCUIT_BREAKER_THRESHOLD</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>RATE_LIMIT_PER_SECOND</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>NOTES</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>CREATED_AT</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>UPDATED_AT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>NOTES</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AY1" s="2" t="inlineStr">
         <is>
           <t>AVG_GAS_USED</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ethereum_001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://rpc.ethereum.io</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://rpc2.ethereum.io</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://rpc3.ethereum.io</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>wss://ws.ethereum.io</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://explorer.ethereum.io</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>HEALTHY</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>Auto-populated from external sources at 2025-10-19 07:17:30</t>
+        </is>
+      </c>
+      <c r="AX2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>polygon_001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>polygon</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>137</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MATIC</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MATIC</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://rpc.polygon.io</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://rpc2.polygon.io</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://rpc3.polygon.io</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>wss://ws.polygon.io</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://explorer.polygon.io</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>HEALTHY</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>Auto-populated from external sources at 2025-10-19 07:17:30</t>
+        </is>
+      </c>
+      <c r="AX3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bsc_001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>bsc</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>56</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>BNB</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://rpc.bsc.io</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://rpc2.bsc.io</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://rpc3.bsc.io</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>wss://ws.bsc.io</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://explorer.bsc.io</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>HEALTHY</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>Auto-populated from external sources at 2025-10-19 07:17:30</t>
+        </is>
+      </c>
+      <c r="AX4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>avalanche_43114</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>avalanche</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>43114</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AVAX</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>AVAX</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://avalanche.llamarpc.com</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://api.avax.network/ext/bc/C/rpc</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://snowtrace.io</t>
+        </is>
+      </c>
+      <c r="Z5" t="n">
+        <v>2927787936.222067</v>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>HEALTHY</t>
+        </is>
+      </c>
+      <c r="AX5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +3026,6 @@
           <t>0x5f4eC3Df9cbd43714FE2740f5E3616155c5b8419</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -2869,7 +3088,6 @@
           <t>0x5f4eC3Df9cbd43714FE2740f5E3616155c5b8419</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -2932,7 +3150,6 @@
           <t>0x8fFfFfd4AfB6115b954Bd326cbe7B4BA576818f6</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -2958,7 +3175,6 @@
           <t>USD Coin - Stablecoin</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>usd-coin</t>
@@ -2991,7 +3207,6 @@
           <t>0x3E7d1eAB13ad0104d2750B8863b489D65364e32D</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -3017,7 +3232,6 @@
           <t>Tether USD - Stablecoin</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>tether</t>
@@ -3050,7 +3264,6 @@
           <t>0xAed0c38402a5d19df6E4c03F4E2DceD6e29c1ee9</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -3076,7 +3289,6 @@
           <t>Dai Stablecoin</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>dai</t>
@@ -3109,7 +3321,6 @@
           <t>0xF4030086522a5bEEa4988F8cA5B36dbC97BeE88c</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -3172,7 +3383,6 @@
           <t>0xF4030086522a5bEEa4988F8cA5B36dbC97BeE88c</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -3235,7 +3445,6 @@
           <t>0x2c1d072e956AFFC0D435Cb7AC38EF18d24d9127c</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -3298,7 +3507,6 @@
           <t>0x553303d460EE0afB37EdFf9bE42922D8FF63220e</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -3361,7 +3569,6 @@
           <t>0x547a514d5e3769680Ce22B2361c10Ea13619e8a9</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -3424,7 +3631,6 @@
           <t>0xAB594600376Ec9fD91F8e885dADF0CE036862dE0</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -3487,7 +3693,6 @@
           <t>0xAB594600376Ec9fD91F8e885dADF0CE036862dE0</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -3550,7 +3755,6 @@
           <t>0xfE4A8cc5b5B2366C1B58Bea3858e81843581b2F7</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -3576,7 +3780,6 @@
           <t>USD Coin on Polygon</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>usd-coin</t>
@@ -3609,7 +3812,6 @@
           <t>0x0A6513e40db6EB1b165753AD52E80663aeA50545</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -3635,7 +3837,6 @@
           <t>Tether USD on Polygon</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>tether</t>
@@ -3668,7 +3869,6 @@
           <t>0x4746DeC9e833A82EC7C2C1356372CcF2cfcD2F3D</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -3694,7 +3894,6 @@
           <t>Dai on Polygon</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>dai</t>
@@ -3727,7 +3926,6 @@
           <t>0xF9680D99D6C9589e2a93a78A04A279e509205945</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -3790,7 +3988,6 @@
           <t>0x0567F2323251f0Aab15c8dFb1967E4e8A7D42aeE</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -3853,7 +4050,6 @@
           <t>0x0567F2323251f0Aab15c8dFb1967E4e8A7D42aeE</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -3916,7 +4112,6 @@
           <t>0x51597f405303C4377E36123cBc172b13269EA163</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -3942,7 +4137,6 @@
           <t>USD Coin on BSC</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>usd-coin</t>
@@ -3975,7 +4169,6 @@
           <t>0xB97Ad0E74fa7d920791E90258A6E2085088b4320</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -4001,7 +4194,6 @@
           <t>Tether USD on BSC</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>tether</t>
@@ -4034,7 +4226,6 @@
           <t>0xcBb98864Ef56E9042e7d2efef76141f15731B82f</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -4060,8 +4251,6 @@
           <t>Binance USD - Stablecoin</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
           <t>BUSD</t>
@@ -4089,7 +4278,6 @@
           <t>0xB6064eD41d4f67e353768aA239cA86f4F73665a1</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -4115,8 +4303,6 @@
           <t>PancakeSwap token</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
           <t>CAKE</t>
@@ -4144,7 +4330,6 @@
           <t>0x0A77230d17318075983913bC2145DB16C7366156</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -4207,7 +4392,6 @@
           <t>0x0A77230d17318075983913bC2145DB16C7366156</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -4270,7 +4454,6 @@
           <t>0xF096872672F44d6EBA71458D74fe67F9a77a23B9</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -4296,7 +4479,6 @@
           <t>USD Coin on Avalanche</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>usd-coin</t>
@@ -4329,7 +4511,6 @@
           <t>0xEBE676ee90Fe1112671f19b6B7459bC678B67e8a</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -4355,7 +4536,6 @@
           <t>Tether USD on Avalanche</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>tether</t>
@@ -4388,7 +4568,6 @@
           <t>0x51D7180edA2260cc4F6e4EebB82FEF5c3c2B8300</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -4414,7 +4593,6 @@
           <t>Dai on Avalanche</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>dai</t>
@@ -4447,7 +4625,6 @@
           <t>0x976B3D034E162d8bD72D6b9C989d545b839003b0</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -4510,7 +4687,6 @@
           <t>0xb2A824043730FE05F3DA2efaFa1CBbe83fa548D6</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -4573,7 +4749,6 @@
           <t>0x639Fe6ab55C921f74e7fac1ee960C0B6293ba612</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -4636,7 +4811,6 @@
           <t>0x50834F3163758fcC1Df9973b6e91f0F0F0434aD3</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -4662,7 +4836,6 @@
           <t>USD Coin on Arbitrum</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>usd-coin</t>
@@ -4695,7 +4868,6 @@
           <t>0x3f3f5dF88dC9F13eac63DF89EC16ef6e7E25DdE7</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -4721,7 +4893,6 @@
           <t>Tether USD on Arbitrum</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>tether</t>
@@ -4754,7 +4925,6 @@
           <t>0xc5C8E77B397E531B8EC06BFb0048328B30E9eCfB</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -4780,7 +4950,6 @@
           <t>Dai on Arbitrum</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>dai</t>
@@ -4813,7 +4982,6 @@
           <t>0xd0C7101eACbB49F3deCcCc166d238410D6D46d57</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -4876,7 +5044,6 @@
           <t>0x0D276FC14719f9292D5C1eA2198673d1f4269246</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -4939,7 +5106,6 @@
           <t>0x13e3Ee699D1909E989722E753853AE30b17e08c5</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5002,7 +5168,6 @@
           <t>0x16a9FA2FDa030272Ce99B29CF780dFA30361E0f3</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5028,7 +5193,6 @@
           <t>USD Coin on Optimism</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>usd-coin</t>
@@ -5061,7 +5225,6 @@
           <t>0xECef79E109e997bCA29c1c0897ec9d7b03647F5E</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5087,7 +5250,6 @@
           <t>Tether USD on Optimism</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>tether</t>
@@ -5120,7 +5282,6 @@
           <t>0x8dBa75e83DA73cc766A7e5a0ee71F656BAb470d6</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5146,7 +5307,6 @@
           <t>Dai on Optimism</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>dai</t>
@@ -5179,7 +5339,6 @@
           <t>0xD702DD976Fb76Fffc2D3963D037dfDae5b04E593</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5237,8 +5396,6 @@
           <t>0xef0d8b6fda2ceba41da15d4095d1da392a0d2f8ed0c6c7bc0f4cfac8c280b56d</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5296,8 +5453,6 @@
           <t>0x72b021217ca3fe68922a19aaf990109cb9d84e9ad004b4d2025ad6f529314419</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5323,8 +5478,6 @@
           <t>Bonk memecoin - High volatility</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
           <t>BONK</t>
@@ -5347,8 +5500,6 @@
           <t>0x0a0408d619e9380abad35060f9192039ed5042fa6f82301d0e48bb52be830996</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5374,8 +5525,6 @@
           <t>Jupiter DEX aggregator token</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
           <t>JUP</t>
@@ -5398,8 +5547,6 @@
           <t>0x0bbf28e9a841a1cc788f6a361b17ca072d0ea3098a1e5df1c3922d06719579ff</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5425,8 +5572,6 @@
           <t>Pyth Network token</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
           <t>PYTH</t>
@@ -5449,8 +5594,6 @@
           <t>0xab7347771135fc733f8f38db462ba085ed3309955f42554a14fa13e855ac0e2f</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5476,8 +5619,6 @@
           <t>Render Network token</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
           <t>RENDER</t>
@@ -5500,8 +5641,6 @@
           <t>0x4ca4beeca86f0d164160323817a4e42b10010a724c2217c6ee41b54cd4cc61fc</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5527,8 +5666,6 @@
           <t>Dogwifhat memecoin</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
           <t>IF</t>
@@ -5551,8 +5688,6 @@
           <t>0x4c1e8b8823e1779c0d5e8d0e5e5e5e5e5e5e5e5e5e5e5e5e5e5e5e5e5e5e5e5</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5578,8 +5713,6 @@
           <t>Orca DEX token</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
           <t>ORCA</t>
@@ -5602,8 +5735,6 @@
           <t>0x91568baa8beb53db23eb3fb7f22c6e8bd303d103919e19733f2bb642d3e7987a</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5629,8 +5760,6 @@
           <t>Raydium DEX token</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
           <t>RAY</t>
@@ -5653,8 +5782,6 @@
           <t>0xb00b60f88b03a6a625a8d1c048c3f66653edf217439983d037e7222c4e612819</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5712,8 +5839,6 @@
           <t>0xca3eed9b267293f6595901c734c7525ce8ef49adafe8284606ceb307afa2ca5b</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5771,8 +5896,6 @@
           <t>0x2a01deaec9e51a579277b34b122399984d0bbf57e2458a7e42fecd2829867a0d</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5830,8 +5953,6 @@
           <t>0xec5d399846a9209f3fe5881d70aae9268c94339ff9817e8d18ff19fa05eea1c8</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5889,8 +6010,6 @@
           <t>0xdcef50dd0a4cd2dcc17e45df1676dcb336a11a61c69df7a0299b0150c672d25c</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -5953,7 +6072,6 @@
           <t>0x8A753747A1Fa494EC906cE90E9f37563A8AF630e</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -6011,8 +6129,6 @@
           <t>0xd69731a2e74ac1ce884fc3890f7ee324b6deb66147055249568869ed700882e4</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -6075,7 +6191,6 @@
           <t>0x4e844125952D32AcdF339BE976c98E22F6F318dB</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -6101,8 +6216,6 @@
           <t>Lido DAO token</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
           <t>LDO</t>
@@ -6130,7 +6243,6 @@
           <t>0xec1D1B3b0443256cc3860e24a46F108e699484Aa</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -6156,8 +6268,6 @@
           <t>Maker DAO token</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
           <t>MKR</t>
@@ -6185,7 +6295,6 @@
           <t>0xCd627aA160A6fA45Eb793D19Ef54f5062F20f33f</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -6211,8 +6320,6 @@
           <t>Curve DAO token</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
           <t>CRV</t>
@@ -6240,7 +6347,6 @@
           <t>0xDC3EA94CD0AC27d9A86C180091e7f78C683d3699</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -6266,8 +6372,6 @@
           <t>Synthetix Network token</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
           <t>SNX</t>
@@ -6295,7 +6399,6 @@
           <t>0xdbd020CAeF83eFd542f4De03e3cF0C28A4428bd5</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
           <t>TRUE</t>
@@ -6321,8 +6424,6 @@
           <t>Compound token</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
           <t>COMP</t>
@@ -6431,7 +6532,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>Errores de validación de entrada</t>
@@ -6553,7 +6653,6 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>Errores de oráculos de precios</t>
@@ -6591,7 +6690,6 @@
           <t>2000</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>Errores de red/conectividad</t>
@@ -6629,7 +6727,6 @@
           <t>3000</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>Errores de timeout</t>
@@ -6667,7 +6764,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>Errores de autenticación</t>
@@ -6705,7 +6801,6 @@
           <t>5000</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>Errores de rate limiting</t>
@@ -6743,7 +6838,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>Fondos insuficientes</t>
@@ -6781,7 +6875,6 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>Errores de estimación de gas</t>
@@ -6969,8 +7062,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>Collector para Uniswap (futuro)</t>
@@ -7003,8 +7094,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>Collector para Binance API (futuro)</t>
@@ -7037,8 +7126,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>Collector para CoinGecko API (futuro)</t>

--- a/data/ARBITRAGEXPLUS2025.xlsx
+++ b/data/ARBITRAGEXPLUS2025.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BLOCKCHAINS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEXES" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASSETS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="POOLS" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ROUTES" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EXECUTIONS" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONFIG" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ALERTS" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORACLES" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STRATEGIES" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FLASH_LOANS" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="METRICS" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LOGS" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORACLE_ASSETS" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ERROR_HANDLING_CONFIG" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COLLECTORS_CONFIG" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="BLOCKCHAINS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DEXES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ASSETS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="POOLS" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ROUTES" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="EXECUTIONS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="CONFIG" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="ALERTS" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ORACLES" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="STRATEGIES" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="FLASH_LOANS" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="METRICS" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="LOGS" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ORACLE_ASSETS" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="ERROR_HANDLING_CONFIG" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="COLLECTORS_CONFIG" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -468,7 +468,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
@@ -981,7 +981,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>avalanche_43114</t>
+          <t>avalanche_test_1760873174</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://avalanche.llamarpc.com</t>
+          <t>https://avalanche.public-rpc.com</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1012,19 +1012,131 @@
           <t>https://api.avax.network/ext/bc/C/rpc</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://rpc.ankr.com/avalanche</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>wss://avalanche.public-rpc.com</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>https://snowtrace.io</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>200</v>
+      </c>
+      <c r="N5" t="n">
+        <v>25</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0xcA11bde05977b3631167028862bE2a173976CA11</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0x49D5c2BdFfac6CE2BFdB6640F4F80f226bc10bAB</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0xB97EF9Ef8734C71904D8002F8b6Bc66Dd9c48a6E</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0x9702230A8Ea53601f5cD2dc00fDBc13d4dF4A8c7</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0xd586E7F844cEa2F87f50152665BCbc2C279D8d70</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>TraderJoe, Pangolin, SushiSwap, Curve</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Aave, Benqi, TraderJoe</t>
         </is>
       </c>
       <c r="Z5" t="n">
         <v>2927787936.222067</v>
       </c>
+      <c r="AC5" t="n">
+        <v>21000</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="b">
+        <v>0</v>
+      </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>HEALTHY</t>
-        </is>
+          <t>degraded</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>synced</t>
+        </is>
+      </c>
+      <c r="AN5" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>100</v>
       </c>
       <c r="AX5" t="b">
         <v>1</v>
@@ -1047,7 +1159,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
@@ -1634,7 +1746,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
@@ -2107,7 +2219,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
@@ -2598,7 +2710,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
@@ -2921,7 +3033,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
@@ -6447,7 +6559,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
@@ -6898,7 +7010,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
@@ -7149,7 +7261,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
@@ -8378,7 +8490,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -10801,7 +10913,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="9" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -11424,7 +11536,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -12653,7 +12765,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
@@ -12982,7 +13094,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
@@ -13047,7 +13159,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
@@ -13124,7 +13236,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
